--- a/outputs/paper/UCI_PRSA_BEIJING_Results.xlsx
+++ b/outputs/paper/UCI_PRSA_BEIJING_Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>dataset_name</t>
   </si>
@@ -82,6 +82,66 @@
     <t>total_perf_duration_minutes_seed_214</t>
   </si>
   <si>
+    <t>change_point_perc_seed_565</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_565</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_565</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_565</t>
+  </si>
+  <si>
+    <t>change_point_perc_seed_600</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_600</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_600</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_600</t>
+  </si>
+  <si>
+    <t>change_point_perc_seed_713</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_713</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_713</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_713</t>
+  </si>
+  <si>
+    <t>change_point_perc_seed_999</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_999</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_999</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_999</t>
+  </si>
+  <si>
+    <t>change_point_perc_seed_1001</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_1001</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_1001</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_1001</t>
+  </si>
+  <si>
     <t>change_point_perc_mean</t>
   </si>
   <si>
@@ -178,7 +238,7 @@
     <t>Fixed Cut 90%</t>
   </si>
   <si>
-    <t>Full</t>
+    <t>No CPD</t>
   </si>
   <si>
     <t>Window AR</t>
@@ -557,13 +617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AY32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:51">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,16 +714,76 @@
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:51">
       <c r="A2" s="1">
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>99.56999999999999</v>
@@ -729,36 +849,96 @@
         <v>99.56999999999999</v>
       </c>
       <c r="Y2">
+        <v>40.97</v>
+      </c>
+      <c r="Z2">
+        <v>97.67</v>
+      </c>
+      <c r="AA2">
+        <v>1.63</v>
+      </c>
+      <c r="AB2">
+        <v>99.56999999999999</v>
+      </c>
+      <c r="AC2">
+        <v>54.82</v>
+      </c>
+      <c r="AD2">
+        <v>110.74</v>
+      </c>
+      <c r="AE2">
+        <v>1.85</v>
+      </c>
+      <c r="AF2">
+        <v>99.56999999999999</v>
+      </c>
+      <c r="AG2">
+        <v>31.76</v>
+      </c>
+      <c r="AH2">
+        <v>109.33</v>
+      </c>
+      <c r="AI2">
+        <v>1.82</v>
+      </c>
+      <c r="AJ2">
+        <v>99.56999999999999</v>
+      </c>
+      <c r="AK2">
+        <v>42.3</v>
+      </c>
+      <c r="AL2">
+        <v>121.86</v>
+      </c>
+      <c r="AM2">
+        <v>2.03</v>
+      </c>
+      <c r="AN2">
+        <v>99.56999999999999</v>
+      </c>
+      <c r="AO2">
+        <v>40.81</v>
+      </c>
+      <c r="AP2">
+        <v>132.87</v>
+      </c>
+      <c r="AQ2">
+        <v>2.21</v>
+      </c>
+      <c r="AR2">
+        <v>99.56999999999999</v>
+      </c>
+      <c r="AS2">
         <v>0</v>
       </c>
-      <c r="Z2">
-        <v>40.65</v>
-      </c>
-      <c r="AA2">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AB2">
-        <v>128.36</v>
-      </c>
-      <c r="AC2">
-        <v>21.05</v>
-      </c>
-      <c r="AD2">
-        <v>2.14</v>
-      </c>
-      <c r="AE2">
-        <v>0.35</v>
+      <c r="AT2">
+        <v>41.39</v>
+      </c>
+      <c r="AU2">
+        <v>5.58</v>
+      </c>
+      <c r="AV2">
+        <v>121.43</v>
+      </c>
+      <c r="AW2">
+        <v>18.16</v>
+      </c>
+      <c r="AX2">
+        <v>2.02</v>
+      </c>
+      <c r="AY2">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:51">
       <c r="A3" s="1">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>5.91</v>
@@ -824,36 +1004,96 @@
         <v>5.91</v>
       </c>
       <c r="Y3">
+        <v>13.61</v>
+      </c>
+      <c r="Z3">
+        <v>2509.86</v>
+      </c>
+      <c r="AA3">
+        <v>41.83</v>
+      </c>
+      <c r="AB3">
+        <v>5.91</v>
+      </c>
+      <c r="AC3">
+        <v>13.65</v>
+      </c>
+      <c r="AD3">
+        <v>3699.18</v>
+      </c>
+      <c r="AE3">
+        <v>61.65</v>
+      </c>
+      <c r="AF3">
+        <v>5.91</v>
+      </c>
+      <c r="AG3">
+        <v>13.35</v>
+      </c>
+      <c r="AH3">
+        <v>3341.87</v>
+      </c>
+      <c r="AI3">
+        <v>55.7</v>
+      </c>
+      <c r="AJ3">
+        <v>5.91</v>
+      </c>
+      <c r="AK3">
+        <v>12.95</v>
+      </c>
+      <c r="AL3">
+        <v>4112.29</v>
+      </c>
+      <c r="AM3">
+        <v>68.54000000000001</v>
+      </c>
+      <c r="AN3">
+        <v>5.91</v>
+      </c>
+      <c r="AO3">
+        <v>13.09</v>
+      </c>
+      <c r="AP3">
+        <v>3949.66</v>
+      </c>
+      <c r="AQ3">
+        <v>65.83</v>
+      </c>
+      <c r="AR3">
+        <v>5.91</v>
+      </c>
+      <c r="AS3">
         <v>0</v>
       </c>
-      <c r="Z3">
-        <v>13.5</v>
-      </c>
-      <c r="AA3">
-        <v>0.44</v>
-      </c>
-      <c r="AB3">
-        <v>4624.02</v>
-      </c>
-      <c r="AC3">
-        <v>672.64</v>
-      </c>
-      <c r="AD3">
-        <v>77.06999999999999</v>
-      </c>
-      <c r="AE3">
-        <v>11.21</v>
+      <c r="AT3">
+        <v>13.41</v>
+      </c>
+      <c r="AU3">
+        <v>0.37</v>
+      </c>
+      <c r="AV3">
+        <v>4073.3</v>
+      </c>
+      <c r="AW3">
+        <v>847.37</v>
+      </c>
+      <c r="AX3">
+        <v>67.89</v>
+      </c>
+      <c r="AY3">
+        <v>14.12</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:51">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>99.56999999999999</v>
@@ -919,36 +1159,96 @@
         <v>99.56999999999999</v>
       </c>
       <c r="Y4">
+        <v>40.97</v>
+      </c>
+      <c r="Z4">
+        <v>74.83</v>
+      </c>
+      <c r="AA4">
+        <v>1.25</v>
+      </c>
+      <c r="AB4">
+        <v>99.56999999999999</v>
+      </c>
+      <c r="AC4">
+        <v>54.82</v>
+      </c>
+      <c r="AD4">
+        <v>91.56</v>
+      </c>
+      <c r="AE4">
+        <v>1.53</v>
+      </c>
+      <c r="AF4">
+        <v>99.56999999999999</v>
+      </c>
+      <c r="AG4">
+        <v>31.76</v>
+      </c>
+      <c r="AH4">
+        <v>88.59</v>
+      </c>
+      <c r="AI4">
+        <v>1.48</v>
+      </c>
+      <c r="AJ4">
+        <v>99.56999999999999</v>
+      </c>
+      <c r="AK4">
+        <v>42.3</v>
+      </c>
+      <c r="AL4">
+        <v>99.13</v>
+      </c>
+      <c r="AM4">
+        <v>1.65</v>
+      </c>
+      <c r="AN4">
+        <v>99.56999999999999</v>
+      </c>
+      <c r="AO4">
+        <v>40.81</v>
+      </c>
+      <c r="AP4">
+        <v>110.04</v>
+      </c>
+      <c r="AQ4">
+        <v>1.83</v>
+      </c>
+      <c r="AR4">
+        <v>99.56999999999999</v>
+      </c>
+      <c r="AS4">
         <v>0</v>
       </c>
-      <c r="Z4">
-        <v>40.65</v>
-      </c>
-      <c r="AA4">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AB4">
-        <v>107.26</v>
-      </c>
-      <c r="AC4">
-        <v>21.37</v>
-      </c>
-      <c r="AD4">
-        <v>1.79</v>
-      </c>
-      <c r="AE4">
-        <v>0.36</v>
+      <c r="AT4">
+        <v>41.39</v>
+      </c>
+      <c r="AU4">
+        <v>5.58</v>
+      </c>
+      <c r="AV4">
+        <v>100.04</v>
+      </c>
+      <c r="AW4">
+        <v>18.34</v>
+      </c>
+      <c r="AX4">
+        <v>1.67</v>
+      </c>
+      <c r="AY4">
+        <v>0.31</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:51">
       <c r="A5" s="1">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>80.37</v>
@@ -1014,36 +1314,96 @@
         <v>80.37</v>
       </c>
       <c r="Y5">
+        <v>16.52</v>
+      </c>
+      <c r="Z5">
+        <v>832.14</v>
+      </c>
+      <c r="AA5">
+        <v>13.87</v>
+      </c>
+      <c r="AB5">
+        <v>80.37</v>
+      </c>
+      <c r="AC5">
+        <v>16.5</v>
+      </c>
+      <c r="AD5">
+        <v>1011.81</v>
+      </c>
+      <c r="AE5">
+        <v>16.86</v>
+      </c>
+      <c r="AF5">
+        <v>80.37</v>
+      </c>
+      <c r="AG5">
+        <v>16.03</v>
+      </c>
+      <c r="AH5">
+        <v>1246.12</v>
+      </c>
+      <c r="AI5">
+        <v>20.77</v>
+      </c>
+      <c r="AJ5">
+        <v>80.37</v>
+      </c>
+      <c r="AK5">
+        <v>14.61</v>
+      </c>
+      <c r="AL5">
+        <v>1219.14</v>
+      </c>
+      <c r="AM5">
+        <v>20.32</v>
+      </c>
+      <c r="AN5">
+        <v>80.37</v>
+      </c>
+      <c r="AO5">
+        <v>14.9</v>
+      </c>
+      <c r="AP5">
+        <v>1123.66</v>
+      </c>
+      <c r="AQ5">
+        <v>18.73</v>
+      </c>
+      <c r="AR5">
+        <v>80.37</v>
+      </c>
+      <c r="AS5">
         <v>0</v>
       </c>
-      <c r="Z5">
-        <v>18.62</v>
-      </c>
-      <c r="AA5">
-        <v>5.11</v>
-      </c>
-      <c r="AB5">
-        <v>1375.59</v>
-      </c>
-      <c r="AC5">
-        <v>293.98</v>
-      </c>
-      <c r="AD5">
-        <v>22.93</v>
-      </c>
-      <c r="AE5">
-        <v>4.9</v>
+      <c r="AT5">
+        <v>17.17</v>
+      </c>
+      <c r="AU5">
+        <v>3.79</v>
+      </c>
+      <c r="AV5">
+        <v>1231.08</v>
+      </c>
+      <c r="AW5">
+        <v>272.69</v>
+      </c>
+      <c r="AX5">
+        <v>20.52</v>
+      </c>
+      <c r="AY5">
+        <v>4.54</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:51">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>80.37</v>
@@ -1109,36 +1469,96 @@
         <v>80.37</v>
       </c>
       <c r="Y6">
+        <v>16.52</v>
+      </c>
+      <c r="Z6">
+        <v>815.2</v>
+      </c>
+      <c r="AA6">
+        <v>13.59</v>
+      </c>
+      <c r="AB6">
+        <v>80.37</v>
+      </c>
+      <c r="AC6">
+        <v>16.5</v>
+      </c>
+      <c r="AD6">
+        <v>971.42</v>
+      </c>
+      <c r="AE6">
+        <v>16.19</v>
+      </c>
+      <c r="AF6">
+        <v>80.37</v>
+      </c>
+      <c r="AG6">
+        <v>16.03</v>
+      </c>
+      <c r="AH6">
+        <v>1228.75</v>
+      </c>
+      <c r="AI6">
+        <v>20.48</v>
+      </c>
+      <c r="AJ6">
+        <v>80.37</v>
+      </c>
+      <c r="AK6">
+        <v>14.61</v>
+      </c>
+      <c r="AL6">
+        <v>1222.26</v>
+      </c>
+      <c r="AM6">
+        <v>20.37</v>
+      </c>
+      <c r="AN6">
+        <v>80.37</v>
+      </c>
+      <c r="AO6">
+        <v>14.9</v>
+      </c>
+      <c r="AP6">
+        <v>1148.23</v>
+      </c>
+      <c r="AQ6">
+        <v>19.14</v>
+      </c>
+      <c r="AR6">
+        <v>80.37</v>
+      </c>
+      <c r="AS6">
         <v>0</v>
       </c>
-      <c r="Z6">
-        <v>18.62</v>
-      </c>
-      <c r="AA6">
-        <v>5.11</v>
-      </c>
-      <c r="AB6">
-        <v>1354.55</v>
-      </c>
-      <c r="AC6">
-        <v>273.12</v>
-      </c>
-      <c r="AD6">
-        <v>22.58</v>
-      </c>
-      <c r="AE6">
-        <v>4.55</v>
+      <c r="AT6">
+        <v>17.17</v>
+      </c>
+      <c r="AU6">
+        <v>3.79</v>
+      </c>
+      <c r="AV6">
+        <v>1215.86</v>
+      </c>
+      <c r="AW6">
+        <v>262.38</v>
+      </c>
+      <c r="AX6">
+        <v>20.26</v>
+      </c>
+      <c r="AY6">
+        <v>4.37</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:51">
       <c r="A7" s="1">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>5.89</v>
@@ -1204,36 +1624,96 @@
         <v>5.89</v>
       </c>
       <c r="Y7">
+        <v>13.64</v>
+      </c>
+      <c r="Z7">
+        <v>5491.57</v>
+      </c>
+      <c r="AA7">
+        <v>91.53</v>
+      </c>
+      <c r="AB7">
+        <v>5.89</v>
+      </c>
+      <c r="AC7">
+        <v>13.71</v>
+      </c>
+      <c r="AD7">
+        <v>5967.68</v>
+      </c>
+      <c r="AE7">
+        <v>99.45999999999999</v>
+      </c>
+      <c r="AF7">
+        <v>5.89</v>
+      </c>
+      <c r="AG7">
+        <v>13.33</v>
+      </c>
+      <c r="AH7">
+        <v>6123.23</v>
+      </c>
+      <c r="AI7">
+        <v>102.05</v>
+      </c>
+      <c r="AJ7">
+        <v>5.89</v>
+      </c>
+      <c r="AK7">
+        <v>13</v>
+      </c>
+      <c r="AL7">
+        <v>6581.33</v>
+      </c>
+      <c r="AM7">
+        <v>109.69</v>
+      </c>
+      <c r="AN7">
+        <v>5.89</v>
+      </c>
+      <c r="AO7">
+        <v>13.1</v>
+      </c>
+      <c r="AP7">
+        <v>6002.25</v>
+      </c>
+      <c r="AQ7">
+        <v>100.04</v>
+      </c>
+      <c r="AR7">
+        <v>5.89</v>
+      </c>
+      <c r="AS7">
         <v>0</v>
       </c>
-      <c r="Z7">
-        <v>13.61</v>
-      </c>
-      <c r="AA7">
-        <v>0.59</v>
-      </c>
-      <c r="AB7">
-        <v>7254.76</v>
-      </c>
-      <c r="AC7">
-        <v>844.65</v>
-      </c>
-      <c r="AD7">
-        <v>120.91</v>
-      </c>
-      <c r="AE7">
-        <v>14.08</v>
+      <c r="AT7">
+        <v>13.48</v>
+      </c>
+      <c r="AU7">
+        <v>0.46</v>
+      </c>
+      <c r="AV7">
+        <v>6643.98</v>
+      </c>
+      <c r="AW7">
+        <v>893.89</v>
+      </c>
+      <c r="AX7">
+        <v>110.73</v>
+      </c>
+      <c r="AY7">
+        <v>14.9</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:51">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>5.47</v>
@@ -1299,36 +1779,96 @@
         <v>5.47</v>
       </c>
       <c r="Y8">
+        <v>13.3</v>
+      </c>
+      <c r="Z8">
+        <v>2514.84</v>
+      </c>
+      <c r="AA8">
+        <v>41.91</v>
+      </c>
+      <c r="AB8">
+        <v>5.47</v>
+      </c>
+      <c r="AC8">
+        <v>13.71</v>
+      </c>
+      <c r="AD8">
+        <v>3368.64</v>
+      </c>
+      <c r="AE8">
+        <v>56.14</v>
+      </c>
+      <c r="AF8">
+        <v>5.47</v>
+      </c>
+      <c r="AG8">
+        <v>13.28</v>
+      </c>
+      <c r="AH8">
+        <v>3371.93</v>
+      </c>
+      <c r="AI8">
+        <v>56.2</v>
+      </c>
+      <c r="AJ8">
+        <v>5.47</v>
+      </c>
+      <c r="AK8">
+        <v>12.84</v>
+      </c>
+      <c r="AL8">
+        <v>4261.82</v>
+      </c>
+      <c r="AM8">
+        <v>71.03</v>
+      </c>
+      <c r="AN8">
+        <v>5.47</v>
+      </c>
+      <c r="AO8">
+        <v>12.81</v>
+      </c>
+      <c r="AP8">
+        <v>3788.21</v>
+      </c>
+      <c r="AQ8">
+        <v>63.14</v>
+      </c>
+      <c r="AR8">
+        <v>5.47</v>
+      </c>
+      <c r="AS8">
         <v>0</v>
       </c>
-      <c r="Z8">
-        <v>13.56</v>
-      </c>
-      <c r="AA8">
-        <v>0.57</v>
-      </c>
-      <c r="AB8">
-        <v>4320.11</v>
-      </c>
-      <c r="AC8">
-        <v>595.28</v>
-      </c>
-      <c r="AD8">
-        <v>72</v>
-      </c>
-      <c r="AE8">
-        <v>9.92</v>
+      <c r="AT8">
+        <v>13.38</v>
+      </c>
+      <c r="AU8">
+        <v>0.5</v>
+      </c>
+      <c r="AV8">
+        <v>3890.6</v>
+      </c>
+      <c r="AW8">
+        <v>739.54</v>
+      </c>
+      <c r="AX8">
+        <v>64.84</v>
+      </c>
+      <c r="AY8">
+        <v>12.33</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:51">
       <c r="A9" s="1">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>25.57</v>
@@ -1394,36 +1934,96 @@
         <v>25.57</v>
       </c>
       <c r="Y9">
+        <v>13.95</v>
+      </c>
+      <c r="Z9">
+        <v>2023.03</v>
+      </c>
+      <c r="AA9">
+        <v>33.72</v>
+      </c>
+      <c r="AB9">
+        <v>25.57</v>
+      </c>
+      <c r="AC9">
+        <v>14.6</v>
+      </c>
+      <c r="AD9">
+        <v>2671.52</v>
+      </c>
+      <c r="AE9">
+        <v>44.53</v>
+      </c>
+      <c r="AF9">
+        <v>25.57</v>
+      </c>
+      <c r="AG9">
+        <v>13.93</v>
+      </c>
+      <c r="AH9">
+        <v>2617.41</v>
+      </c>
+      <c r="AI9">
+        <v>43.62</v>
+      </c>
+      <c r="AJ9">
+        <v>25.57</v>
+      </c>
+      <c r="AK9">
+        <v>13.42</v>
+      </c>
+      <c r="AL9">
+        <v>3253.65</v>
+      </c>
+      <c r="AM9">
+        <v>54.23</v>
+      </c>
+      <c r="AN9">
+        <v>25.57</v>
+      </c>
+      <c r="AO9">
+        <v>13.37</v>
+      </c>
+      <c r="AP9">
+        <v>3322.11</v>
+      </c>
+      <c r="AQ9">
+        <v>55.37</v>
+      </c>
+      <c r="AR9">
+        <v>25.57</v>
+      </c>
+      <c r="AS9">
         <v>0</v>
       </c>
-      <c r="Z9">
-        <v>13.78</v>
-      </c>
-      <c r="AA9">
-        <v>0.41</v>
-      </c>
-      <c r="AB9">
-        <v>3339.55</v>
-      </c>
-      <c r="AC9">
-        <v>559.95</v>
-      </c>
-      <c r="AD9">
-        <v>55.66</v>
-      </c>
-      <c r="AE9">
-        <v>9.33</v>
+      <c r="AT9">
+        <v>13.82</v>
+      </c>
+      <c r="AU9">
+        <v>0.43</v>
+      </c>
+      <c r="AV9">
+        <v>3058.55</v>
+      </c>
+      <c r="AW9">
+        <v>593.78</v>
+      </c>
+      <c r="AX9">
+        <v>50.98</v>
+      </c>
+      <c r="AY9">
+        <v>9.9</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:51">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>8.130000000000001</v>
@@ -1489,36 +2089,96 @@
         <v>8.130000000000001</v>
       </c>
       <c r="Y10">
+        <v>12.93</v>
+      </c>
+      <c r="Z10">
+        <v>2434.34</v>
+      </c>
+      <c r="AA10">
+        <v>40.57</v>
+      </c>
+      <c r="AB10">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AC10">
+        <v>14.61</v>
+      </c>
+      <c r="AD10">
+        <v>3200.38</v>
+      </c>
+      <c r="AE10">
+        <v>53.34</v>
+      </c>
+      <c r="AF10">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AG10">
+        <v>13.94</v>
+      </c>
+      <c r="AH10">
+        <v>3286.86</v>
+      </c>
+      <c r="AI10">
+        <v>54.78</v>
+      </c>
+      <c r="AJ10">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AK10">
+        <v>12.79</v>
+      </c>
+      <c r="AL10">
+        <v>3484.95</v>
+      </c>
+      <c r="AM10">
+        <v>58.08</v>
+      </c>
+      <c r="AN10">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AO10">
+        <v>12.73</v>
+      </c>
+      <c r="AP10">
+        <v>3677.76</v>
+      </c>
+      <c r="AQ10">
+        <v>61.3</v>
+      </c>
+      <c r="AR10">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AS10">
         <v>0</v>
       </c>
-      <c r="Z10">
-        <v>13.19</v>
-      </c>
-      <c r="AA10">
-        <v>0.38</v>
-      </c>
-      <c r="AB10">
-        <v>4548.28</v>
-      </c>
-      <c r="AC10">
-        <v>676.65</v>
-      </c>
-      <c r="AD10">
-        <v>75.8</v>
-      </c>
-      <c r="AE10">
-        <v>11.28</v>
+      <c r="AT10">
+        <v>13.3</v>
+      </c>
+      <c r="AU10">
+        <v>0.62</v>
+      </c>
+      <c r="AV10">
+        <v>3882.57</v>
+      </c>
+      <c r="AW10">
+        <v>892.25</v>
+      </c>
+      <c r="AX10">
+        <v>64.70999999999999</v>
+      </c>
+      <c r="AY10">
+        <v>14.87</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:51">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>77.08</v>
@@ -1584,36 +2244,96 @@
         <v>77.08</v>
       </c>
       <c r="Y11">
+        <v>15.96</v>
+      </c>
+      <c r="Z11">
+        <v>911.73</v>
+      </c>
+      <c r="AA11">
+        <v>15.2</v>
+      </c>
+      <c r="AB11">
+        <v>77.08</v>
+      </c>
+      <c r="AC11">
+        <v>16.99</v>
+      </c>
+      <c r="AD11">
+        <v>1212.9</v>
+      </c>
+      <c r="AE11">
+        <v>20.22</v>
+      </c>
+      <c r="AF11">
+        <v>77.08</v>
+      </c>
+      <c r="AG11">
+        <v>15.5</v>
+      </c>
+      <c r="AH11">
+        <v>1284.77</v>
+      </c>
+      <c r="AI11">
+        <v>21.41</v>
+      </c>
+      <c r="AJ11">
+        <v>77.08</v>
+      </c>
+      <c r="AK11">
+        <v>16.16</v>
+      </c>
+      <c r="AL11">
+        <v>1386.72</v>
+      </c>
+      <c r="AM11">
+        <v>23.11</v>
+      </c>
+      <c r="AN11">
+        <v>77.08</v>
+      </c>
+      <c r="AO11">
+        <v>15.24</v>
+      </c>
+      <c r="AP11">
+        <v>1277.24</v>
+      </c>
+      <c r="AQ11">
+        <v>21.29</v>
+      </c>
+      <c r="AR11">
+        <v>77.08</v>
+      </c>
+      <c r="AS11">
         <v>0</v>
       </c>
-      <c r="Z11">
-        <v>16.4</v>
-      </c>
-      <c r="AA11">
-        <v>0.83</v>
-      </c>
-      <c r="AB11">
-        <v>1463.56</v>
-      </c>
-      <c r="AC11">
-        <v>449.64</v>
-      </c>
-      <c r="AD11">
-        <v>24.39</v>
-      </c>
-      <c r="AE11">
-        <v>7.49</v>
+      <c r="AT11">
+        <v>16.18</v>
+      </c>
+      <c r="AU11">
+        <v>0.75</v>
+      </c>
+      <c r="AV11">
+        <v>1339.12</v>
+      </c>
+      <c r="AW11">
+        <v>348.61</v>
+      </c>
+      <c r="AX11">
+        <v>22.32</v>
+      </c>
+      <c r="AY11">
+        <v>5.81</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:51">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>27.67</v>
@@ -1679,36 +2399,96 @@
         <v>27.67</v>
       </c>
       <c r="Y12">
+        <v>14.04</v>
+      </c>
+      <c r="Z12">
+        <v>2259.85</v>
+      </c>
+      <c r="AA12">
+        <v>37.66</v>
+      </c>
+      <c r="AB12">
+        <v>27.67</v>
+      </c>
+      <c r="AC12">
+        <v>14.57</v>
+      </c>
+      <c r="AD12">
+        <v>2635.84</v>
+      </c>
+      <c r="AE12">
+        <v>43.93</v>
+      </c>
+      <c r="AF12">
+        <v>27.67</v>
+      </c>
+      <c r="AG12">
+        <v>13.86</v>
+      </c>
+      <c r="AH12">
+        <v>2828.23</v>
+      </c>
+      <c r="AI12">
+        <v>47.14</v>
+      </c>
+      <c r="AJ12">
+        <v>27.67</v>
+      </c>
+      <c r="AK12">
+        <v>13.16</v>
+      </c>
+      <c r="AL12">
+        <v>3135.75</v>
+      </c>
+      <c r="AM12">
+        <v>52.26</v>
+      </c>
+      <c r="AN12">
+        <v>27.67</v>
+      </c>
+      <c r="AO12">
+        <v>13.12</v>
+      </c>
+      <c r="AP12">
+        <v>3231.29</v>
+      </c>
+      <c r="AQ12">
+        <v>53.85</v>
+      </c>
+      <c r="AR12">
+        <v>27.67</v>
+      </c>
+      <c r="AS12">
         <v>0</v>
       </c>
-      <c r="Z12">
-        <v>13.59</v>
-      </c>
-      <c r="AA12">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AB12">
-        <v>3713.18</v>
-      </c>
-      <c r="AC12">
-        <v>618.6799999999999</v>
-      </c>
-      <c r="AD12">
-        <v>61.89</v>
-      </c>
-      <c r="AE12">
-        <v>10.31</v>
+      <c r="AT12">
+        <v>13.67</v>
+      </c>
+      <c r="AU12">
+        <v>0.68</v>
+      </c>
+      <c r="AV12">
+        <v>3265.69</v>
+      </c>
+      <c r="AW12">
+        <v>679.0700000000001</v>
+      </c>
+      <c r="AX12">
+        <v>54.43</v>
+      </c>
+      <c r="AY12">
+        <v>11.32</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:51">
       <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>81.48</v>
@@ -1774,36 +2554,96 @@
         <v>81.48</v>
       </c>
       <c r="Y13">
+        <v>18.04</v>
+      </c>
+      <c r="Z13">
+        <v>805.39</v>
+      </c>
+      <c r="AA13">
+        <v>13.42</v>
+      </c>
+      <c r="AB13">
+        <v>81.48</v>
+      </c>
+      <c r="AC13">
+        <v>16.56</v>
+      </c>
+      <c r="AD13">
+        <v>1068.88</v>
+      </c>
+      <c r="AE13">
+        <v>17.81</v>
+      </c>
+      <c r="AF13">
+        <v>81.48</v>
+      </c>
+      <c r="AG13">
+        <v>15.39</v>
+      </c>
+      <c r="AH13">
+        <v>1049.59</v>
+      </c>
+      <c r="AI13">
+        <v>17.49</v>
+      </c>
+      <c r="AJ13">
+        <v>81.48</v>
+      </c>
+      <c r="AK13">
+        <v>15.84</v>
+      </c>
+      <c r="AL13">
+        <v>1070.08</v>
+      </c>
+      <c r="AM13">
+        <v>17.83</v>
+      </c>
+      <c r="AN13">
+        <v>81.48</v>
+      </c>
+      <c r="AO13">
+        <v>25.22</v>
+      </c>
+      <c r="AP13">
+        <v>1066.94</v>
+      </c>
+      <c r="AQ13">
+        <v>17.78</v>
+      </c>
+      <c r="AR13">
+        <v>81.48</v>
+      </c>
+      <c r="AS13">
         <v>0</v>
       </c>
-      <c r="Z13">
-        <v>18.03</v>
-      </c>
-      <c r="AA13">
-        <v>3.94</v>
-      </c>
-      <c r="AB13">
-        <v>1142.63</v>
-      </c>
-      <c r="AC13">
-        <v>313.09</v>
-      </c>
-      <c r="AD13">
-        <v>19.04</v>
-      </c>
-      <c r="AE13">
-        <v>5.22</v>
+      <c r="AT13">
+        <v>18.12</v>
+      </c>
+      <c r="AU13">
+        <v>3.77</v>
+      </c>
+      <c r="AV13">
+        <v>1077.4</v>
+      </c>
+      <c r="AW13">
+        <v>232.94</v>
+      </c>
+      <c r="AX13">
+        <v>17.96</v>
+      </c>
+      <c r="AY13">
+        <v>3.88</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:51">
       <c r="A14" s="1">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>8.130000000000001</v>
@@ -1869,36 +2709,96 @@
         <v>8.130000000000001</v>
       </c>
       <c r="Y14">
+        <v>12.93</v>
+      </c>
+      <c r="Z14">
+        <v>2362.67</v>
+      </c>
+      <c r="AA14">
+        <v>39.38</v>
+      </c>
+      <c r="AB14">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AC14">
+        <v>14.61</v>
+      </c>
+      <c r="AD14">
+        <v>3178.1</v>
+      </c>
+      <c r="AE14">
+        <v>52.97</v>
+      </c>
+      <c r="AF14">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AG14">
+        <v>13.94</v>
+      </c>
+      <c r="AH14">
+        <v>3264.37</v>
+      </c>
+      <c r="AI14">
+        <v>54.41</v>
+      </c>
+      <c r="AJ14">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AK14">
+        <v>12.79</v>
+      </c>
+      <c r="AL14">
+        <v>3509.16</v>
+      </c>
+      <c r="AM14">
+        <v>58.49</v>
+      </c>
+      <c r="AN14">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AO14">
+        <v>12.73</v>
+      </c>
+      <c r="AP14">
+        <v>3734.7</v>
+      </c>
+      <c r="AQ14">
+        <v>62.24</v>
+      </c>
+      <c r="AR14">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AS14">
         <v>0</v>
       </c>
-      <c r="Z14">
-        <v>13.19</v>
-      </c>
-      <c r="AA14">
-        <v>0.38</v>
-      </c>
-      <c r="AB14">
-        <v>4240.8</v>
-      </c>
-      <c r="AC14">
-        <v>810.17</v>
-      </c>
-      <c r="AD14">
-        <v>70.68000000000001</v>
-      </c>
-      <c r="AE14">
-        <v>13.5</v>
+      <c r="AT14">
+        <v>13.3</v>
+      </c>
+      <c r="AU14">
+        <v>0.62</v>
+      </c>
+      <c r="AV14">
+        <v>3725.3</v>
+      </c>
+      <c r="AW14">
+        <v>841.27</v>
+      </c>
+      <c r="AX14">
+        <v>62.09</v>
+      </c>
+      <c r="AY14">
+        <v>14.02</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:51">
       <c r="A15" s="1">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>7.61</v>
@@ -1964,36 +2864,96 @@
         <v>7.61</v>
       </c>
       <c r="Y15">
+        <v>13.71</v>
+      </c>
+      <c r="Z15">
+        <v>2482.54</v>
+      </c>
+      <c r="AA15">
+        <v>41.38</v>
+      </c>
+      <c r="AB15">
+        <v>7.61</v>
+      </c>
+      <c r="AC15">
+        <v>13.8</v>
+      </c>
+      <c r="AD15">
+        <v>3404.79</v>
+      </c>
+      <c r="AE15">
+        <v>56.75</v>
+      </c>
+      <c r="AF15">
+        <v>7.61</v>
+      </c>
+      <c r="AG15">
+        <v>13.87</v>
+      </c>
+      <c r="AH15">
+        <v>3440.77</v>
+      </c>
+      <c r="AI15">
+        <v>57.35</v>
+      </c>
+      <c r="AJ15">
+        <v>7.61</v>
+      </c>
+      <c r="AK15">
+        <v>12.93</v>
+      </c>
+      <c r="AL15">
+        <v>3992.77</v>
+      </c>
+      <c r="AM15">
+        <v>66.55</v>
+      </c>
+      <c r="AN15">
+        <v>7.61</v>
+      </c>
+      <c r="AO15">
+        <v>13.03</v>
+      </c>
+      <c r="AP15">
+        <v>3731.32</v>
+      </c>
+      <c r="AQ15">
+        <v>62.19</v>
+      </c>
+      <c r="AR15">
+        <v>7.61</v>
+      </c>
+      <c r="AS15">
         <v>0</v>
       </c>
-      <c r="Z15">
-        <v>13.42</v>
-      </c>
-      <c r="AA15">
-        <v>0.71</v>
-      </c>
-      <c r="AB15">
-        <v>4453.51</v>
-      </c>
-      <c r="AC15">
-        <v>711.65</v>
-      </c>
-      <c r="AD15">
-        <v>74.23</v>
-      </c>
-      <c r="AE15">
-        <v>11.86</v>
+      <c r="AT15">
+        <v>13.44</v>
+      </c>
+      <c r="AU15">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AV15">
+        <v>3931.98</v>
+      </c>
+      <c r="AW15">
+        <v>819.88</v>
+      </c>
+      <c r="AX15">
+        <v>65.53</v>
+      </c>
+      <c r="AY15">
+        <v>13.66</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:51">
       <c r="A16" s="1">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>0.1</v>
@@ -2059,36 +3019,96 @@
         <v>0.1</v>
       </c>
       <c r="Y16">
+        <v>13.48</v>
+      </c>
+      <c r="Z16">
+        <v>2397.85</v>
+      </c>
+      <c r="AA16">
+        <v>39.96</v>
+      </c>
+      <c r="AB16">
+        <v>0.1</v>
+      </c>
+      <c r="AC16">
+        <v>13.84</v>
+      </c>
+      <c r="AD16">
+        <v>3249.72</v>
+      </c>
+      <c r="AE16">
+        <v>54.16</v>
+      </c>
+      <c r="AF16">
+        <v>0.1</v>
+      </c>
+      <c r="AG16">
+        <v>13.57</v>
+      </c>
+      <c r="AH16">
+        <v>3209.26</v>
+      </c>
+      <c r="AI16">
+        <v>53.49</v>
+      </c>
+      <c r="AJ16">
+        <v>0.1</v>
+      </c>
+      <c r="AK16">
+        <v>13.43</v>
+      </c>
+      <c r="AL16">
+        <v>3217.32</v>
+      </c>
+      <c r="AM16">
+        <v>53.62</v>
+      </c>
+      <c r="AN16">
+        <v>0.1</v>
+      </c>
+      <c r="AO16">
+        <v>13.34</v>
+      </c>
+      <c r="AP16">
+        <v>3725.15</v>
+      </c>
+      <c r="AQ16">
+        <v>62.09</v>
+      </c>
+      <c r="AR16">
+        <v>0.1</v>
+      </c>
+      <c r="AS16">
         <v>0</v>
       </c>
-      <c r="Z16">
-        <v>13.8</v>
-      </c>
-      <c r="AA16">
-        <v>0.57</v>
-      </c>
-      <c r="AB16">
-        <v>4079.03</v>
-      </c>
-      <c r="AC16">
-        <v>804.14</v>
-      </c>
-      <c r="AD16">
-        <v>67.98</v>
-      </c>
-      <c r="AE16">
-        <v>13.4</v>
+      <c r="AT16">
+        <v>13.67</v>
+      </c>
+      <c r="AU16">
+        <v>0.43</v>
+      </c>
+      <c r="AV16">
+        <v>3619.44</v>
+      </c>
+      <c r="AW16">
+        <v>789.71</v>
+      </c>
+      <c r="AX16">
+        <v>60.32</v>
+      </c>
+      <c r="AY16">
+        <v>13.16</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:51">
       <c r="A17" s="1">
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <v>0.2</v>
@@ -2154,36 +3174,96 @@
         <v>0.2</v>
       </c>
       <c r="Y17">
+        <v>13.86</v>
+      </c>
+      <c r="Z17">
+        <v>2298.55</v>
+      </c>
+      <c r="AA17">
+        <v>38.31</v>
+      </c>
+      <c r="AB17">
+        <v>0.2</v>
+      </c>
+      <c r="AC17">
+        <v>13.87</v>
+      </c>
+      <c r="AD17">
+        <v>2886.39</v>
+      </c>
+      <c r="AE17">
+        <v>48.11</v>
+      </c>
+      <c r="AF17">
+        <v>0.2</v>
+      </c>
+      <c r="AG17">
+        <v>13.42</v>
+      </c>
+      <c r="AH17">
+        <v>3030.74</v>
+      </c>
+      <c r="AI17">
+        <v>50.51</v>
+      </c>
+      <c r="AJ17">
+        <v>0.2</v>
+      </c>
+      <c r="AK17">
+        <v>13.17</v>
+      </c>
+      <c r="AL17">
+        <v>3483.75</v>
+      </c>
+      <c r="AM17">
+        <v>58.06</v>
+      </c>
+      <c r="AN17">
+        <v>0.2</v>
+      </c>
+      <c r="AO17">
+        <v>13.24</v>
+      </c>
+      <c r="AP17">
+        <v>3683.97</v>
+      </c>
+      <c r="AQ17">
+        <v>61.4</v>
+      </c>
+      <c r="AR17">
+        <v>0.2</v>
+      </c>
+      <c r="AS17">
         <v>0</v>
       </c>
-      <c r="Z17">
-        <v>13.62</v>
-      </c>
-      <c r="AA17">
-        <v>0.51</v>
-      </c>
-      <c r="AB17">
-        <v>3642.02</v>
-      </c>
-      <c r="AC17">
-        <v>891.35</v>
-      </c>
-      <c r="AD17">
-        <v>60.7</v>
-      </c>
-      <c r="AE17">
-        <v>14.86</v>
+      <c r="AT17">
+        <v>13.56</v>
+      </c>
+      <c r="AU17">
+        <v>0.41</v>
+      </c>
+      <c r="AV17">
+        <v>3359.35</v>
+      </c>
+      <c r="AW17">
+        <v>756.85</v>
+      </c>
+      <c r="AX17">
+        <v>55.99</v>
+      </c>
+      <c r="AY17">
+        <v>12.61</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:51">
       <c r="A18" s="1">
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>0.3</v>
@@ -2249,36 +3329,96 @@
         <v>0.3</v>
       </c>
       <c r="Y18">
+        <v>13.07</v>
+      </c>
+      <c r="Z18">
+        <v>2254.18</v>
+      </c>
+      <c r="AA18">
+        <v>37.57</v>
+      </c>
+      <c r="AB18">
+        <v>0.3</v>
+      </c>
+      <c r="AC18">
+        <v>14.08</v>
+      </c>
+      <c r="AD18">
+        <v>2552.12</v>
+      </c>
+      <c r="AE18">
+        <v>42.54</v>
+      </c>
+      <c r="AF18">
+        <v>0.3</v>
+      </c>
+      <c r="AG18">
+        <v>13.41</v>
+      </c>
+      <c r="AH18">
+        <v>2894.13</v>
+      </c>
+      <c r="AI18">
+        <v>48.24</v>
+      </c>
+      <c r="AJ18">
+        <v>0.3</v>
+      </c>
+      <c r="AK18">
+        <v>13.35</v>
+      </c>
+      <c r="AL18">
+        <v>3126.37</v>
+      </c>
+      <c r="AM18">
+        <v>52.11</v>
+      </c>
+      <c r="AN18">
+        <v>0.3</v>
+      </c>
+      <c r="AO18">
+        <v>13.38</v>
+      </c>
+      <c r="AP18">
+        <v>3119.78</v>
+      </c>
+      <c r="AQ18">
+        <v>52</v>
+      </c>
+      <c r="AR18">
+        <v>0.3</v>
+      </c>
+      <c r="AS18">
         <v>0</v>
       </c>
-      <c r="Z18">
-        <v>13.86</v>
-      </c>
-      <c r="AA18">
-        <v>0.55</v>
-      </c>
-      <c r="AB18">
-        <v>3361.46</v>
-      </c>
-      <c r="AC18">
-        <v>654.52</v>
-      </c>
-      <c r="AD18">
-        <v>56.02</v>
-      </c>
-      <c r="AE18">
-        <v>10.91</v>
+      <c r="AT18">
+        <v>13.66</v>
+      </c>
+      <c r="AU18">
+        <v>0.49</v>
+      </c>
+      <c r="AV18">
+        <v>3075.39</v>
+      </c>
+      <c r="AW18">
+        <v>587.6900000000001</v>
+      </c>
+      <c r="AX18">
+        <v>51.26</v>
+      </c>
+      <c r="AY18">
+        <v>9.789999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:51">
       <c r="A19" s="1">
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <v>0.4</v>
@@ -2344,36 +3484,96 @@
         <v>0.4</v>
       </c>
       <c r="Y19">
+        <v>13.42</v>
+      </c>
+      <c r="Z19">
+        <v>1932.95</v>
+      </c>
+      <c r="AA19">
+        <v>32.22</v>
+      </c>
+      <c r="AB19">
+        <v>0.4</v>
+      </c>
+      <c r="AC19">
+        <v>13.7</v>
+      </c>
+      <c r="AD19">
+        <v>2243.68</v>
+      </c>
+      <c r="AE19">
+        <v>37.39</v>
+      </c>
+      <c r="AF19">
+        <v>0.4</v>
+      </c>
+      <c r="AG19">
+        <v>14.03</v>
+      </c>
+      <c r="AH19">
+        <v>2486.79</v>
+      </c>
+      <c r="AI19">
+        <v>41.45</v>
+      </c>
+      <c r="AJ19">
+        <v>0.4</v>
+      </c>
+      <c r="AK19">
+        <v>13.44</v>
+      </c>
+      <c r="AL19">
+        <v>2760.94</v>
+      </c>
+      <c r="AM19">
+        <v>46.02</v>
+      </c>
+      <c r="AN19">
+        <v>0.4</v>
+      </c>
+      <c r="AO19">
+        <v>13.43</v>
+      </c>
+      <c r="AP19">
+        <v>2631.39</v>
+      </c>
+      <c r="AQ19">
+        <v>43.86</v>
+      </c>
+      <c r="AR19">
+        <v>0.4</v>
+      </c>
+      <c r="AS19">
         <v>0</v>
       </c>
-      <c r="Z19">
-        <v>14</v>
-      </c>
-      <c r="AA19">
-        <v>0.95</v>
-      </c>
-      <c r="AB19">
-        <v>3180.26</v>
-      </c>
-      <c r="AC19">
-        <v>732.02</v>
-      </c>
-      <c r="AD19">
-        <v>53</v>
-      </c>
-      <c r="AE19">
-        <v>12.2</v>
+      <c r="AT19">
+        <v>13.8</v>
+      </c>
+      <c r="AU19">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AV19">
+        <v>2795.7</v>
+      </c>
+      <c r="AW19">
+        <v>671.28</v>
+      </c>
+      <c r="AX19">
+        <v>46.6</v>
+      </c>
+      <c r="AY19">
+        <v>11.19</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:51">
       <c r="A20" s="1">
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D20">
         <v>0.5</v>
@@ -2439,36 +3639,96 @@
         <v>0.5</v>
       </c>
       <c r="Y20">
+        <v>14.37</v>
+      </c>
+      <c r="Z20">
+        <v>1536.24</v>
+      </c>
+      <c r="AA20">
+        <v>25.6</v>
+      </c>
+      <c r="AB20">
+        <v>0.5</v>
+      </c>
+      <c r="AC20">
+        <v>14.93</v>
+      </c>
+      <c r="AD20">
+        <v>2009.14</v>
+      </c>
+      <c r="AE20">
+        <v>33.49</v>
+      </c>
+      <c r="AF20">
+        <v>0.5</v>
+      </c>
+      <c r="AG20">
+        <v>14.49</v>
+      </c>
+      <c r="AH20">
+        <v>2099.52</v>
+      </c>
+      <c r="AI20">
+        <v>34.99</v>
+      </c>
+      <c r="AJ20">
+        <v>0.5</v>
+      </c>
+      <c r="AK20">
+        <v>14.64</v>
+      </c>
+      <c r="AL20">
+        <v>2308.44</v>
+      </c>
+      <c r="AM20">
+        <v>38.47</v>
+      </c>
+      <c r="AN20">
+        <v>0.5</v>
+      </c>
+      <c r="AO20">
+        <v>14.18</v>
+      </c>
+      <c r="AP20">
+        <v>2220.23</v>
+      </c>
+      <c r="AQ20">
+        <v>37</v>
+      </c>
+      <c r="AR20">
+        <v>0.5</v>
+      </c>
+      <c r="AS20">
         <v>0</v>
       </c>
-      <c r="Z20">
+      <c r="AT20">
         <v>14.51</v>
       </c>
-      <c r="AA20">
-        <v>0.61</v>
-      </c>
-      <c r="AB20">
-        <v>2702.48</v>
-      </c>
-      <c r="AC20">
-        <v>471.63</v>
-      </c>
-      <c r="AD20">
-        <v>45.04</v>
-      </c>
-      <c r="AE20">
-        <v>7.86</v>
+      <c r="AU20">
+        <v>0.45</v>
+      </c>
+      <c r="AV20">
+        <v>2368.6</v>
+      </c>
+      <c r="AW20">
+        <v>512.86</v>
+      </c>
+      <c r="AX20">
+        <v>39.48</v>
+      </c>
+      <c r="AY20">
+        <v>8.550000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:51">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D21">
         <v>0.6</v>
@@ -2534,36 +3794,96 @@
         <v>0.6</v>
       </c>
       <c r="Y21">
+        <v>14.99</v>
+      </c>
+      <c r="Z21">
+        <v>1273.07</v>
+      </c>
+      <c r="AA21">
+        <v>21.22</v>
+      </c>
+      <c r="AB21">
+        <v>0.6</v>
+      </c>
+      <c r="AC21">
+        <v>15</v>
+      </c>
+      <c r="AD21">
+        <v>1728.88</v>
+      </c>
+      <c r="AE21">
+        <v>28.81</v>
+      </c>
+      <c r="AF21">
+        <v>0.6</v>
+      </c>
+      <c r="AG21">
+        <v>15.08</v>
+      </c>
+      <c r="AH21">
+        <v>1947.35</v>
+      </c>
+      <c r="AI21">
+        <v>32.46</v>
+      </c>
+      <c r="AJ21">
+        <v>0.6</v>
+      </c>
+      <c r="AK21">
+        <v>15.42</v>
+      </c>
+      <c r="AL21">
+        <v>1832.4</v>
+      </c>
+      <c r="AM21">
+        <v>30.54</v>
+      </c>
+      <c r="AN21">
+        <v>0.6</v>
+      </c>
+      <c r="AO21">
+        <v>15.18</v>
+      </c>
+      <c r="AP21">
+        <v>1927.61</v>
+      </c>
+      <c r="AQ21">
+        <v>32.13</v>
+      </c>
+      <c r="AR21">
+        <v>0.6</v>
+      </c>
+      <c r="AS21">
         <v>0</v>
       </c>
-      <c r="Z21">
-        <v>15.24</v>
-      </c>
-      <c r="AA21">
-        <v>0.27</v>
-      </c>
-      <c r="AB21">
-        <v>2282.61</v>
-      </c>
-      <c r="AC21">
-        <v>597.87</v>
-      </c>
-      <c r="AD21">
-        <v>38.04</v>
-      </c>
-      <c r="AE21">
-        <v>9.960000000000001</v>
+      <c r="AT21">
+        <v>15.18</v>
+      </c>
+      <c r="AU21">
+        <v>0.22</v>
+      </c>
+      <c r="AV21">
+        <v>2012.24</v>
+      </c>
+      <c r="AW21">
+        <v>523.42</v>
+      </c>
+      <c r="AX21">
+        <v>33.54</v>
+      </c>
+      <c r="AY21">
+        <v>8.720000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:51">
       <c r="A22" s="1">
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>0.7</v>
@@ -2629,36 +3949,96 @@
         <v>0.7</v>
       </c>
       <c r="Y22">
+        <v>15.36</v>
+      </c>
+      <c r="Z22">
+        <v>1087.01</v>
+      </c>
+      <c r="AA22">
+        <v>18.12</v>
+      </c>
+      <c r="AB22">
+        <v>0.7</v>
+      </c>
+      <c r="AC22">
+        <v>15.59</v>
+      </c>
+      <c r="AD22">
+        <v>1110.78</v>
+      </c>
+      <c r="AE22">
+        <v>18.51</v>
+      </c>
+      <c r="AF22">
+        <v>0.7</v>
+      </c>
+      <c r="AG22">
+        <v>16.03</v>
+      </c>
+      <c r="AH22">
+        <v>1553.46</v>
+      </c>
+      <c r="AI22">
+        <v>25.89</v>
+      </c>
+      <c r="AJ22">
+        <v>0.7</v>
+      </c>
+      <c r="AK22">
+        <v>15.55</v>
+      </c>
+      <c r="AL22">
+        <v>1523.14</v>
+      </c>
+      <c r="AM22">
+        <v>25.39</v>
+      </c>
+      <c r="AN22">
+        <v>0.7</v>
+      </c>
+      <c r="AO22">
+        <v>15.17</v>
+      </c>
+      <c r="AP22">
+        <v>1418.74</v>
+      </c>
+      <c r="AQ22">
+        <v>23.65</v>
+      </c>
+      <c r="AR22">
+        <v>0.7</v>
+      </c>
+      <c r="AS22">
         <v>0</v>
       </c>
-      <c r="Z22">
-        <v>16.81</v>
-      </c>
-      <c r="AA22">
-        <v>0.91</v>
-      </c>
-      <c r="AB22">
-        <v>1866.17</v>
-      </c>
-      <c r="AC22">
-        <v>472.98</v>
-      </c>
-      <c r="AD22">
-        <v>31.1</v>
-      </c>
-      <c r="AE22">
-        <v>7.88</v>
+      <c r="AT22">
+        <v>16.18</v>
+      </c>
+      <c r="AU22">
+        <v>0.93</v>
+      </c>
+      <c r="AV22">
+        <v>1602.4</v>
+      </c>
+      <c r="AW22">
+        <v>446.27</v>
+      </c>
+      <c r="AX22">
+        <v>26.71</v>
+      </c>
+      <c r="AY22">
+        <v>7.44</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:51">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D23">
         <v>0.8</v>
@@ -2724,36 +4104,96 @@
         <v>0.8</v>
       </c>
       <c r="Y23">
+        <v>15.36</v>
+      </c>
+      <c r="Z23">
+        <v>793.8</v>
+      </c>
+      <c r="AA23">
+        <v>13.23</v>
+      </c>
+      <c r="AB23">
+        <v>0.8</v>
+      </c>
+      <c r="AC23">
+        <v>15.93</v>
+      </c>
+      <c r="AD23">
+        <v>967.04</v>
+      </c>
+      <c r="AE23">
+        <v>16.12</v>
+      </c>
+      <c r="AF23">
+        <v>0.8</v>
+      </c>
+      <c r="AG23">
+        <v>14.97</v>
+      </c>
+      <c r="AH23">
+        <v>1277.47</v>
+      </c>
+      <c r="AI23">
+        <v>21.29</v>
+      </c>
+      <c r="AJ23">
+        <v>0.8</v>
+      </c>
+      <c r="AK23">
+        <v>15.08</v>
+      </c>
+      <c r="AL23">
+        <v>1222.77</v>
+      </c>
+      <c r="AM23">
+        <v>20.38</v>
+      </c>
+      <c r="AN23">
+        <v>0.8</v>
+      </c>
+      <c r="AO23">
+        <v>15.64</v>
+      </c>
+      <c r="AP23">
+        <v>1095.53</v>
+      </c>
+      <c r="AQ23">
+        <v>18.26</v>
+      </c>
+      <c r="AR23">
+        <v>0.8</v>
+      </c>
+      <c r="AS23">
         <v>0</v>
       </c>
-      <c r="Z23">
-        <v>21.49</v>
-      </c>
-      <c r="AA23">
-        <v>10.96</v>
-      </c>
-      <c r="AB23">
-        <v>1234.34</v>
-      </c>
-      <c r="AC23">
-        <v>273.95</v>
-      </c>
-      <c r="AD23">
-        <v>20.57</v>
-      </c>
-      <c r="AE23">
-        <v>4.57</v>
+      <c r="AT23">
+        <v>18.44</v>
+      </c>
+      <c r="AU23">
+        <v>7.99</v>
+      </c>
+      <c r="AV23">
+        <v>1152.83</v>
+      </c>
+      <c r="AW23">
+        <v>240.5</v>
+      </c>
+      <c r="AX23">
+        <v>19.21</v>
+      </c>
+      <c r="AY23">
+        <v>4.01</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:51">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D24">
         <v>0.9</v>
@@ -2819,36 +4259,96 @@
         <v>0.9</v>
       </c>
       <c r="Y24">
+        <v>30.12</v>
+      </c>
+      <c r="Z24">
+        <v>439.27</v>
+      </c>
+      <c r="AA24">
+        <v>7.32</v>
+      </c>
+      <c r="AB24">
+        <v>0.9</v>
+      </c>
+      <c r="AC24">
+        <v>29.3</v>
+      </c>
+      <c r="AD24">
+        <v>592.55</v>
+      </c>
+      <c r="AE24">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="AF24">
+        <v>0.9</v>
+      </c>
+      <c r="AG24">
+        <v>29.27</v>
+      </c>
+      <c r="AH24">
+        <v>697.14</v>
+      </c>
+      <c r="AI24">
+        <v>11.62</v>
+      </c>
+      <c r="AJ24">
+        <v>0.9</v>
+      </c>
+      <c r="AK24">
+        <v>27.29</v>
+      </c>
+      <c r="AL24">
+        <v>688.01</v>
+      </c>
+      <c r="AM24">
+        <v>11.47</v>
+      </c>
+      <c r="AN24">
+        <v>0.9</v>
+      </c>
+      <c r="AO24">
+        <v>26.38</v>
+      </c>
+      <c r="AP24">
+        <v>578.8099999999999</v>
+      </c>
+      <c r="AQ24">
+        <v>9.65</v>
+      </c>
+      <c r="AR24">
+        <v>0.9</v>
+      </c>
+      <c r="AS24">
         <v>0</v>
       </c>
-      <c r="Z24">
-        <v>49.7</v>
-      </c>
-      <c r="AA24">
-        <v>47.82</v>
-      </c>
-      <c r="AB24">
-        <v>688.21</v>
-      </c>
-      <c r="AC24">
-        <v>154.06</v>
-      </c>
-      <c r="AD24">
-        <v>11.47</v>
-      </c>
-      <c r="AE24">
-        <v>2.57</v>
+      <c r="AT24">
+        <v>39.09</v>
+      </c>
+      <c r="AU24">
+        <v>33.8</v>
+      </c>
+      <c r="AV24">
+        <v>643.6799999999999</v>
+      </c>
+      <c r="AW24">
+        <v>132.61</v>
+      </c>
+      <c r="AX24">
+        <v>10.73</v>
+      </c>
+      <c r="AY24">
+        <v>2.21</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:51">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2914,36 +4414,96 @@
         <v>0</v>
       </c>
       <c r="Y25">
+        <v>13.5</v>
+      </c>
+      <c r="Z25">
+        <v>2527.01</v>
+      </c>
+      <c r="AA25">
+        <v>42.12</v>
+      </c>
+      <c r="AB25">
         <v>0</v>
       </c>
-      <c r="Z25">
-        <v>13.34</v>
-      </c>
-      <c r="AA25">
-        <v>0.76</v>
-      </c>
-      <c r="AB25">
-        <v>4302.44</v>
-      </c>
       <c r="AC25">
-        <v>709.5599999999999</v>
+        <v>13.9</v>
       </c>
       <c r="AD25">
-        <v>71.70999999999999</v>
+        <v>3325.81</v>
       </c>
       <c r="AE25">
-        <v>11.83</v>
+        <v>55.43</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>13.37</v>
+      </c>
+      <c r="AH25">
+        <v>3289.54</v>
+      </c>
+      <c r="AI25">
+        <v>54.83</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>12.75</v>
+      </c>
+      <c r="AL25">
+        <v>4088.08</v>
+      </c>
+      <c r="AM25">
+        <v>68.13</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>12.93</v>
+      </c>
+      <c r="AP25">
+        <v>4093.33</v>
+      </c>
+      <c r="AQ25">
+        <v>68.22</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>13.31</v>
+      </c>
+      <c r="AU25">
+        <v>0.59</v>
+      </c>
+      <c r="AV25">
+        <v>3883.6</v>
+      </c>
+      <c r="AW25">
+        <v>780.4</v>
+      </c>
+      <c r="AX25">
+        <v>64.73</v>
+      </c>
+      <c r="AY25">
+        <v>13.01</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:51">
       <c r="A26" s="1">
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -3009,36 +4569,96 @@
         <v>25</v>
       </c>
       <c r="Y26">
+        <v>13.77</v>
+      </c>
+      <c r="Z26">
+        <v>2183.6</v>
+      </c>
+      <c r="AA26">
+        <v>36.39</v>
+      </c>
+      <c r="AB26">
+        <v>25</v>
+      </c>
+      <c r="AC26">
+        <v>13.73</v>
+      </c>
+      <c r="AD26">
+        <v>2688.88</v>
+      </c>
+      <c r="AE26">
+        <v>44.81</v>
+      </c>
+      <c r="AF26">
+        <v>25</v>
+      </c>
+      <c r="AG26">
+        <v>13.75</v>
+      </c>
+      <c r="AH26">
+        <v>2665.41</v>
+      </c>
+      <c r="AI26">
+        <v>44.42</v>
+      </c>
+      <c r="AJ26">
+        <v>25</v>
+      </c>
+      <c r="AK26">
+        <v>13.35</v>
+      </c>
+      <c r="AL26">
+        <v>3030.18</v>
+      </c>
+      <c r="AM26">
+        <v>50.5</v>
+      </c>
+      <c r="AN26">
+        <v>25</v>
+      </c>
+      <c r="AO26">
+        <v>13.35</v>
+      </c>
+      <c r="AP26">
+        <v>3243.38</v>
+      </c>
+      <c r="AQ26">
+        <v>54.06</v>
+      </c>
+      <c r="AR26">
+        <v>25</v>
+      </c>
+      <c r="AS26">
         <v>0</v>
       </c>
-      <c r="Z26">
-        <v>14.01</v>
-      </c>
-      <c r="AA26">
-        <v>0.74</v>
-      </c>
-      <c r="AB26">
-        <v>3993.9</v>
-      </c>
-      <c r="AC26">
-        <v>683.22</v>
-      </c>
-      <c r="AD26">
-        <v>66.56999999999999</v>
-      </c>
-      <c r="AE26">
-        <v>11.39</v>
+      <c r="AT26">
+        <v>13.8</v>
+      </c>
+      <c r="AU26">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AV26">
+        <v>3378.1</v>
+      </c>
+      <c r="AW26">
+        <v>837.47</v>
+      </c>
+      <c r="AX26">
+        <v>56.3</v>
+      </c>
+      <c r="AY26">
+        <v>13.96</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:51">
       <c r="A27" s="1">
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>51.24</v>
@@ -3104,36 +4724,96 @@
         <v>51.24</v>
       </c>
       <c r="Y27">
+        <v>14.87</v>
+      </c>
+      <c r="Z27">
+        <v>1525.01</v>
+      </c>
+      <c r="AA27">
+        <v>25.42</v>
+      </c>
+      <c r="AB27">
+        <v>51.24</v>
+      </c>
+      <c r="AC27">
+        <v>13.74</v>
+      </c>
+      <c r="AD27">
+        <v>2030.75</v>
+      </c>
+      <c r="AE27">
+        <v>33.85</v>
+      </c>
+      <c r="AF27">
+        <v>51.24</v>
+      </c>
+      <c r="AG27">
+        <v>13.91</v>
+      </c>
+      <c r="AH27">
+        <v>2064.6</v>
+      </c>
+      <c r="AI27">
+        <v>34.41</v>
+      </c>
+      <c r="AJ27">
+        <v>51.24</v>
+      </c>
+      <c r="AK27">
+        <v>13.8</v>
+      </c>
+      <c r="AL27">
+        <v>2297.43</v>
+      </c>
+      <c r="AM27">
+        <v>38.29</v>
+      </c>
+      <c r="AN27">
+        <v>51.24</v>
+      </c>
+      <c r="AO27">
+        <v>14.08</v>
+      </c>
+      <c r="AP27">
+        <v>2170.58</v>
+      </c>
+      <c r="AQ27">
+        <v>36.18</v>
+      </c>
+      <c r="AR27">
+        <v>51.24</v>
+      </c>
+      <c r="AS27">
         <v>0</v>
       </c>
-      <c r="Z27">
-        <v>14.37</v>
-      </c>
-      <c r="AA27">
-        <v>0.36</v>
-      </c>
-      <c r="AB27">
-        <v>2654.21</v>
-      </c>
-      <c r="AC27">
-        <v>601.62</v>
-      </c>
-      <c r="AD27">
-        <v>44.24</v>
-      </c>
-      <c r="AE27">
-        <v>10.03</v>
+      <c r="AT27">
+        <v>14.23</v>
+      </c>
+      <c r="AU27">
+        <v>0.42</v>
+      </c>
+      <c r="AV27">
+        <v>2335.94</v>
+      </c>
+      <c r="AW27">
+        <v>558.52</v>
+      </c>
+      <c r="AX27">
+        <v>38.93</v>
+      </c>
+      <c r="AY27">
+        <v>9.31</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:51">
       <c r="A28" s="1">
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>51.24</v>
@@ -3199,36 +4879,96 @@
         <v>51.24</v>
       </c>
       <c r="Y28">
+        <v>14.87</v>
+      </c>
+      <c r="Z28">
+        <v>1567.97</v>
+      </c>
+      <c r="AA28">
+        <v>26.13</v>
+      </c>
+      <c r="AB28">
+        <v>51.24</v>
+      </c>
+      <c r="AC28">
+        <v>13.74</v>
+      </c>
+      <c r="AD28">
+        <v>1989.64</v>
+      </c>
+      <c r="AE28">
+        <v>33.16</v>
+      </c>
+      <c r="AF28">
+        <v>51.24</v>
+      </c>
+      <c r="AG28">
+        <v>13.91</v>
+      </c>
+      <c r="AH28">
+        <v>2068.2</v>
+      </c>
+      <c r="AI28">
+        <v>34.47</v>
+      </c>
+      <c r="AJ28">
+        <v>51.24</v>
+      </c>
+      <c r="AK28">
+        <v>13.8</v>
+      </c>
+      <c r="AL28">
+        <v>2229.63</v>
+      </c>
+      <c r="AM28">
+        <v>37.16</v>
+      </c>
+      <c r="AN28">
+        <v>51.24</v>
+      </c>
+      <c r="AO28">
+        <v>14.08</v>
+      </c>
+      <c r="AP28">
+        <v>2270.47</v>
+      </c>
+      <c r="AQ28">
+        <v>37.84</v>
+      </c>
+      <c r="AR28">
+        <v>51.24</v>
+      </c>
+      <c r="AS28">
         <v>0</v>
       </c>
-      <c r="Z28">
-        <v>14.37</v>
-      </c>
-      <c r="AA28">
-        <v>0.36</v>
-      </c>
-      <c r="AB28">
-        <v>2633.13</v>
-      </c>
-      <c r="AC28">
-        <v>595.2</v>
-      </c>
-      <c r="AD28">
-        <v>43.89</v>
-      </c>
-      <c r="AE28">
-        <v>9.92</v>
+      <c r="AT28">
+        <v>14.23</v>
+      </c>
+      <c r="AU28">
+        <v>0.42</v>
+      </c>
+      <c r="AV28">
+        <v>2329.16</v>
+      </c>
+      <c r="AW28">
+        <v>543.16</v>
+      </c>
+      <c r="AX28">
+        <v>38.82</v>
+      </c>
+      <c r="AY28">
+        <v>9.050000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:51">
       <c r="A29" s="1">
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D29">
         <v>77.03</v>
@@ -3294,36 +5034,96 @@
         <v>77.03</v>
       </c>
       <c r="Y29">
+        <v>15.02</v>
+      </c>
+      <c r="Z29">
+        <v>828.55</v>
+      </c>
+      <c r="AA29">
+        <v>13.81</v>
+      </c>
+      <c r="AB29">
+        <v>77.03</v>
+      </c>
+      <c r="AC29">
+        <v>15.29</v>
+      </c>
+      <c r="AD29">
+        <v>1067.37</v>
+      </c>
+      <c r="AE29">
+        <v>17.79</v>
+      </c>
+      <c r="AF29">
+        <v>77.03</v>
+      </c>
+      <c r="AG29">
+        <v>15.84</v>
+      </c>
+      <c r="AH29">
+        <v>1277.15</v>
+      </c>
+      <c r="AI29">
+        <v>21.29</v>
+      </c>
+      <c r="AJ29">
+        <v>77.03</v>
+      </c>
+      <c r="AK29">
+        <v>15.92</v>
+      </c>
+      <c r="AL29">
+        <v>1324.23</v>
+      </c>
+      <c r="AM29">
+        <v>22.07</v>
+      </c>
+      <c r="AN29">
+        <v>77.03</v>
+      </c>
+      <c r="AO29">
+        <v>15.28</v>
+      </c>
+      <c r="AP29">
+        <v>1334.03</v>
+      </c>
+      <c r="AQ29">
+        <v>22.23</v>
+      </c>
+      <c r="AR29">
+        <v>77.03</v>
+      </c>
+      <c r="AS29">
         <v>0</v>
       </c>
-      <c r="Z29">
-        <v>16.23</v>
-      </c>
-      <c r="AA29">
-        <v>0.87</v>
-      </c>
-      <c r="AB29">
-        <v>1503.06</v>
-      </c>
-      <c r="AC29">
-        <v>382.73</v>
-      </c>
-      <c r="AD29">
-        <v>25.05</v>
-      </c>
-      <c r="AE29">
-        <v>6.38</v>
+      <c r="AT29">
+        <v>15.85</v>
+      </c>
+      <c r="AU29">
+        <v>0.75</v>
+      </c>
+      <c r="AV29">
+        <v>1334.66</v>
+      </c>
+      <c r="AW29">
+        <v>342.98</v>
+      </c>
+      <c r="AX29">
+        <v>22.24</v>
+      </c>
+      <c r="AY29">
+        <v>5.72</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:51">
       <c r="A30" s="1">
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <v>69.69</v>
@@ -3389,36 +5189,96 @@
         <v>69.69</v>
       </c>
       <c r="Y30">
+        <v>14.94</v>
+      </c>
+      <c r="Z30">
+        <v>1015.28</v>
+      </c>
+      <c r="AA30">
+        <v>16.92</v>
+      </c>
+      <c r="AB30">
+        <v>69.69</v>
+      </c>
+      <c r="AC30">
+        <v>15.44</v>
+      </c>
+      <c r="AD30">
+        <v>1298.3</v>
+      </c>
+      <c r="AE30">
+        <v>21.64</v>
+      </c>
+      <c r="AF30">
+        <v>69.69</v>
+      </c>
+      <c r="AG30">
+        <v>16.04</v>
+      </c>
+      <c r="AH30">
+        <v>1532.54</v>
+      </c>
+      <c r="AI30">
+        <v>25.54</v>
+      </c>
+      <c r="AJ30">
+        <v>69.69</v>
+      </c>
+      <c r="AK30">
+        <v>15.93</v>
+      </c>
+      <c r="AL30">
+        <v>1447</v>
+      </c>
+      <c r="AM30">
+        <v>24.12</v>
+      </c>
+      <c r="AN30">
+        <v>69.69</v>
+      </c>
+      <c r="AO30">
+        <v>16.3</v>
+      </c>
+      <c r="AP30">
+        <v>1540.35</v>
+      </c>
+      <c r="AQ30">
+        <v>25.67</v>
+      </c>
+      <c r="AR30">
+        <v>69.69</v>
+      </c>
+      <c r="AS30">
         <v>0</v>
       </c>
-      <c r="Z30">
-        <v>16.02</v>
-      </c>
-      <c r="AA30">
-        <v>0.49</v>
-      </c>
-      <c r="AB30">
-        <v>1723.42</v>
-      </c>
-      <c r="AC30">
-        <v>375.61</v>
-      </c>
-      <c r="AD30">
-        <v>28.72</v>
-      </c>
-      <c r="AE30">
-        <v>6.26</v>
+      <c r="AT30">
+        <v>15.87</v>
+      </c>
+      <c r="AU30">
+        <v>0.51</v>
+      </c>
+      <c r="AV30">
+        <v>1545.06</v>
+      </c>
+      <c r="AW30">
+        <v>345.57</v>
+      </c>
+      <c r="AX30">
+        <v>25.75</v>
+      </c>
+      <c r="AY30">
+        <v>5.76</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:51">
       <c r="A31" s="1">
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D31">
         <v>45.8</v>
@@ -3484,36 +5344,96 @@
         <v>45.8</v>
       </c>
       <c r="Y31">
+        <v>14</v>
+      </c>
+      <c r="Z31">
+        <v>1667.5</v>
+      </c>
+      <c r="AA31">
+        <v>27.79</v>
+      </c>
+      <c r="AB31">
+        <v>45.8</v>
+      </c>
+      <c r="AC31">
+        <v>13.73</v>
+      </c>
+      <c r="AD31">
+        <v>2118.76</v>
+      </c>
+      <c r="AE31">
+        <v>35.31</v>
+      </c>
+      <c r="AF31">
+        <v>45.8</v>
+      </c>
+      <c r="AG31">
+        <v>14.06</v>
+      </c>
+      <c r="AH31">
+        <v>2358.66</v>
+      </c>
+      <c r="AI31">
+        <v>39.31</v>
+      </c>
+      <c r="AJ31">
+        <v>45.8</v>
+      </c>
+      <c r="AK31">
+        <v>13.7</v>
+      </c>
+      <c r="AL31">
+        <v>2274.11</v>
+      </c>
+      <c r="AM31">
+        <v>37.9</v>
+      </c>
+      <c r="AN31">
+        <v>45.8</v>
+      </c>
+      <c r="AO31">
+        <v>13.86</v>
+      </c>
+      <c r="AP31">
+        <v>2558.98</v>
+      </c>
+      <c r="AQ31">
+        <v>42.65</v>
+      </c>
+      <c r="AR31">
+        <v>45.8</v>
+      </c>
+      <c r="AS31">
         <v>0</v>
       </c>
-      <c r="Z31">
-        <v>14.46</v>
-      </c>
-      <c r="AA31">
-        <v>0.75</v>
-      </c>
-      <c r="AB31">
-        <v>2961.99</v>
-      </c>
-      <c r="AC31">
-        <v>492.47</v>
-      </c>
-      <c r="AD31">
-        <v>49.37</v>
-      </c>
-      <c r="AE31">
-        <v>8.210000000000001</v>
+      <c r="AT31">
+        <v>14.17</v>
+      </c>
+      <c r="AU31">
+        <v>0.6</v>
+      </c>
+      <c r="AV31">
+        <v>2578.8</v>
+      </c>
+      <c r="AW31">
+        <v>566.48</v>
+      </c>
+      <c r="AX31">
+        <v>42.98</v>
+      </c>
+      <c r="AY31">
+        <v>9.44</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:51">
       <c r="A32" s="1">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D32">
         <v>0.14</v>
@@ -3579,25 +5499,85 @@
         <v>0.14</v>
       </c>
       <c r="Y32">
+        <v>13.62</v>
+      </c>
+      <c r="Z32">
+        <v>2618.9</v>
+      </c>
+      <c r="AA32">
+        <v>43.65</v>
+      </c>
+      <c r="AB32">
+        <v>0.14</v>
+      </c>
+      <c r="AC32">
+        <v>13.84</v>
+      </c>
+      <c r="AD32">
+        <v>3372.89</v>
+      </c>
+      <c r="AE32">
+        <v>56.21</v>
+      </c>
+      <c r="AF32">
+        <v>0.14</v>
+      </c>
+      <c r="AG32">
+        <v>13.3</v>
+      </c>
+      <c r="AH32">
+        <v>3513.65</v>
+      </c>
+      <c r="AI32">
+        <v>58.56</v>
+      </c>
+      <c r="AJ32">
+        <v>0.14</v>
+      </c>
+      <c r="AK32">
+        <v>13.42</v>
+      </c>
+      <c r="AL32">
+        <v>4248.27</v>
+      </c>
+      <c r="AM32">
+        <v>70.8</v>
+      </c>
+      <c r="AN32">
+        <v>0.14</v>
+      </c>
+      <c r="AO32">
+        <v>12.98</v>
+      </c>
+      <c r="AP32">
+        <v>3849.89</v>
+      </c>
+      <c r="AQ32">
+        <v>64.16</v>
+      </c>
+      <c r="AR32">
+        <v>0.14</v>
+      </c>
+      <c r="AS32">
         <v>0</v>
       </c>
-      <c r="Z32">
-        <v>13.33</v>
-      </c>
-      <c r="AA32">
-        <v>0.73</v>
-      </c>
-      <c r="AB32">
-        <v>4746.82</v>
-      </c>
-      <c r="AC32">
-        <v>605.38</v>
-      </c>
-      <c r="AD32">
-        <v>79.11</v>
-      </c>
-      <c r="AE32">
-        <v>10.09</v>
+      <c r="AT32">
+        <v>13.38</v>
+      </c>
+      <c r="AU32">
+        <v>0.54</v>
+      </c>
+      <c r="AV32">
+        <v>4133.77</v>
+      </c>
+      <c r="AW32">
+        <v>862.63</v>
+      </c>
+      <c r="AX32">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="AY32">
+        <v>14.38</v>
       </c>
     </row>
   </sheetData>
